--- a/data/trans_camb/IP1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,39</t>
+          <t>0,48; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,25</t>
+          <t>-1,48; 0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,71</t>
+          <t>-0,5; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,06</t>
+          <t>-2,63; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,57</t>
+          <t>-2,31; 1,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,63</t>
+          <t>-0,82; 3,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,81</t>
+          <t>-0,47; 2,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,15</t>
+          <t>-1,35; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>-0,15; 3,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,0%</t>
+          <t>359,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-73,1%</t>
+          <t>-16,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>167,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-43,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-48,59%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-64,67%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>103,47%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-8,69; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 189,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,55; 198,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,43; 513,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 265,51</t>
+          <t>-36,69; 399,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,79</t>
+          <t>-75,54; 177,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 307,38</t>
+          <t>-17,89; 442,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,38</t>
+          <t>-1,5; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,83</t>
+          <t>-2,01; 0,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,7</t>
+          <t>-1,21; 1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,12</t>
+          <t>-1,18; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,57</t>
+          <t>-1,45; 0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,92</t>
+          <t>-1,35; 0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,61</t>
+          <t>-0,94; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,92</t>
+          <t>-1,46; 0,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,06</t>
+          <t>-0,9; 0,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>359,25%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>-73,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>167,79%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-43,24%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>-48,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>-12,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>-64,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>103,47%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,69; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 189,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 198,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 513,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 399,4</t>
+          <t>-82,99; 265,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 177,77</t>
+          <t>-100,0; 144,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 442,34</t>
+          <t>-73,58; 307,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,78</t>
+          <t>-2,53; 3,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,38</t>
+          <t>-1,72; 5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,06</t>
+          <t>-5,54; -0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,45</t>
+          <t>-0,8; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,85</t>
+          <t>-2,76; 1,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,08</t>
+          <t>-1,9; 6,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,15</t>
+          <t>-0,82; 3,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,42</t>
+          <t>-1,21; 3,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,69</t>
+          <t>-2,48; 2,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-39,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>114,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,73%</t>
+          <t>-23,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,32%</t>
+          <t>-38,86%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 464,04</t>
+          <t>-77,81; 548,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 423,32</t>
+          <t>-59,28; 791,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 198,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 333,17</t>
+          <t>-46,02; 1219,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 236,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 312,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 246,36</t>
+          <t>-35,28; 367,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 195,07</t>
+          <t>-49,61; 349,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,06; 75,29</t>
+          <t>-100,0; 333,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,38</t>
+          <t>0,34; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,83</t>
+          <t>-1,82; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,7</t>
+          <t>-0,86; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,12</t>
+          <t>-1,78; 2,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,57</t>
+          <t>-0,97; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,92</t>
+          <t>-0,72; 4,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,61</t>
+          <t>-0,06; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,92</t>
+          <t>-0,95; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,06</t>
+          <t>-0,24; 3,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>359,25%</t>
+          <t>200,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>-14,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>167,79%</t>
+          <t>106,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,24%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>103,47%</t>
+          <t>91,61%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; —</t>
+          <t>-3,97; 1296,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-64,64; 859,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 189,01</t>
+          <t>-81,31; 274,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 198,44</t>
+          <t>-54,88; 385,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 513,11</t>
+          <t>-56,73; 475,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 399,4</t>
+          <t>-13,02; 381,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 177,77</t>
+          <t>-54,23; 196,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 442,34</t>
+          <t>-18,85; 419,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-0,01</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,39</t>
+          <t>-0,6; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,25</t>
+          <t>-1,79; 1,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,71</t>
+          <t>-1,39; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,06</t>
+          <t>-4,64; 0,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,57</t>
+          <t>-5,5; -0,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,63</t>
+          <t>-3,93; 1,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,81</t>
+          <t>-1,86; 1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,15</t>
+          <t>-2,64; -0,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>-2,22; 1,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,0%</t>
+          <t>263,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-73,1%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-64,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-48,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-36,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-64,67%</t>
+          <t>-76,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-23,59%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,56; 245,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 265,51</t>
+          <t>-74,27; 261,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,79</t>
+          <t>-100,0; 53,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 307,38</t>
+          <t>-83,92; 192,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,33</t>
+          <t>-1,96; 1,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,17</t>
+          <t>-2,09; 0,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,24</t>
+          <t>-1,22; 2,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,26</t>
+          <t>-0,64; 1,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,67</t>
+          <t>-0,64; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,06</t>
+          <t>-1,74; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,48</t>
+          <t>-0,96; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,69</t>
+          <t>-1,07; 0,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,8</t>
+          <t>-0,86; 1,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102,78%</t>
+          <t>-45,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>-55,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,18%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>-29,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 333,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 153,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 160,25</t>
+          <t>-87,48; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 143,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 89,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 120,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 165,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 71,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 83,94</t>
+          <t>-91,52; 526,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,41</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 1,34</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 1,18</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 0,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 1,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 1,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 0,67</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 0,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>102,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52,74%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 312,36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 173,23</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-56,85; 192,93</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-48,41; 128,4</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-67,46; 66,0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-56,66; 110,91</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 159,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,63; 81,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-40,89; 85,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,91</t>
+          <t>-2,59; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,94</t>
+          <t>-1,56; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,58</t>
+          <t>-5,87; -0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,93</t>
+          <t>-1,07; 4,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,7</t>
+          <t>-2,69; 1,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,02</t>
+          <t>-2,15; 5,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,45</t>
+          <t>-1,1; 3,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,03</t>
+          <t>-1,48; 2,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,0</t>
+          <t>-2,75; 1,62</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 548,21</t>
+          <t>-71,77; 480,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 791,41</t>
+          <t>-57,72; 705,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 1219,31</t>
+          <t>-58,12; 843,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 367,71</t>
+          <t>-47,76; 305,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 349,17</t>
+          <t>-55,59; 281,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 333,28</t>
+          <t>-100,0; 259,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,82</t>
+          <t>0,43; 4,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,24</t>
+          <t>-1,93; 1,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,91</t>
+          <t>-0,67; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,04</t>
+          <t>-1,89; 1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,26</t>
+          <t>-1,05; 3,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,13</t>
+          <t>-0,88; 4,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,92</t>
+          <t>-0,33; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,57</t>
+          <t>-1,06; 1,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,26</t>
+          <t>-0,09; 3,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1296,7</t>
+          <t>-5,07; 966,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 259,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 859,88</t>
+          <t>-64,33; 898,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,31; 274,93</t>
+          <t>-78,12; 213,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 385,46</t>
+          <t>-53,79; 367,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 475,66</t>
+          <t>-57,24; 549,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 381,66</t>
+          <t>-24,24; 317,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 196,23</t>
+          <t>-52,95; 207,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 419,39</t>
+          <t>-22,11; 409,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,79</t>
+          <t>-0,36; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,44</t>
+          <t>-1,71; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,55</t>
+          <t>-1,71; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,84</t>
+          <t>-4,64; 0,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,9</t>
+          <t>-5,47; -0,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,67</t>
+          <t>-4,06; 1,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,64</t>
+          <t>-1,61; 1,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -0,07</t>
+          <t>-2,83; -0,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,06</t>
+          <t>-2,05; 1,13</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,56; 245,05</t>
+          <t>-90,02; 214,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 261,11</t>
+          <t>-71,15; 255,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,61</t>
+          <t>-100,0; 47,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,92; 192,54</t>
+          <t>-81,13; 190,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,27</t>
+          <t>-1,95; 1,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,79</t>
+          <t>-1,96; 0,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,25</t>
+          <t>-1,37; 2,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,28</t>
+          <t>-0,64; 1,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,86</t>
+          <t>-0,64; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,8</t>
+          <t>-1,01; 0,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,72</t>
+          <t>-1,13; 0,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,08</t>
+          <t>-0,93; 1,08</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,48; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,52; 526,16</t>
+          <t>-86,93; 563,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,41</t>
+          <t>0,2; 2,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,19</t>
+          <t>-0,74; 1,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,34</t>
+          <t>-0,8; 1,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,18</t>
+          <t>-0,89; 1,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,59</t>
+          <t>-1,27; 0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,06</t>
+          <t>-1,2; 0,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,45</t>
+          <t>-0,01; 1,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,67</t>
+          <t>-0,77; 0,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,82</t>
+          <t>-0,68; 0,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 312,36</t>
+          <t>2,98; 306,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 173,23</t>
+          <t>-47,28; 154,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 192,93</t>
+          <t>-52,07; 166,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 128,4</t>
+          <t>-49,94; 122,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 66,0</t>
+          <t>-65,09; 63,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 110,91</t>
+          <t>-58,12; 103,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 159,85</t>
+          <t>-2,24; 156,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 81,06</t>
+          <t>-46,08; 58,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 85,0</t>
+          <t>-42,04; 91,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>2,09</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-2,21</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,6</t>
+          <t>-1,15; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 5,57</t>
+          <t>-2,94; 1,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -0,58</t>
+          <t>-2,12; 5,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,71</t>
+          <t>-2,42; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,7</t>
+          <t>-1,33; 6,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,52</t>
+          <t>-5,52; -0,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,02</t>
+          <t>-1,14; 3,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,9</t>
+          <t>-1,25; 3,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,62</t>
+          <t>-2,58; 1,68</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>114,52%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-23,75%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47,42%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>29,47%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>94,48%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>114,52%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-23,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>50,19%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>63,07%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-38,86%</t>
+          <t>-41,4%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,77; 480,6</t>
+          <t>-56,81; 816,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 705,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 843,48</t>
+          <t>-74,79; 393,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-51,82; 892,44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 305,81</t>
+          <t>-41,21; 329,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 281,23</t>
+          <t>-48,89; 326,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 259,74</t>
+          <t>-100,0; 294,62</t>
         </is>
       </c>
     </row>
@@ -848,39 +848,39 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,37</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,17</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,32</t>
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,93</t>
+          <t>-1,71; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,08</t>
+          <t>-1,01; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,13</t>
+          <t>-0,67; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,78</t>
+          <t>0,26; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,07</t>
+          <t>-1,7; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,18</t>
+          <t>-0,74; 4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,74</t>
+          <t>-0,08; 2,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,61</t>
+          <t>-0,89; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,39</t>
+          <t>-0,1; 3,75</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61,03%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81,2%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>200,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-14,19%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>106,16%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>61,03%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>129,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>101,32%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 966,44</t>
+          <t>-74,56; 320,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 259,1</t>
+          <t>-51,18; 458,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 898,52</t>
+          <t>-40,37; 609,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 213,85</t>
+          <t>-10,11; 1477,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 367,16</t>
+          <t>-84,87; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 549,37</t>
+          <t>-60,37; 1411,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 317,17</t>
+          <t>-17,93; 361,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 207,03</t>
+          <t>-48,85; 208,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 409,54</t>
+          <t>-16,04; 444,08</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,7</t>
+          <t>-4,77; 0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,45</t>
+          <t>-5,55; -0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,5</t>
+          <t>-4,07; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,67</t>
+          <t>-0,34; 3,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -0,95</t>
+          <t>-1,52; 1,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,68</t>
+          <t>-1,66; 1,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,59</t>
+          <t>-1,71; 1,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,17</t>
+          <t>-2,86; -0,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,13</t>
+          <t>-2,06; 0,92</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-64,02%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-37,38%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>263,32%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>25,8%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-64,02%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,1%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>-23,79%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 251,42</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-89,67; 198,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,2; 306,53</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-90,02; 214,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-71,15; 255,88</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 47,15</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 190,58</t>
+          <t>-83,44; 164,84</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,54</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,07</t>
+          <t>-0,64; 1,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,87</t>
+          <t>-0,64; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,41</t>
+          <t>-1,6; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,22</t>
+          <t>-1,98; 0,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,75</t>
+          <t>-1,99; 0,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,21; 2,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,82</t>
+          <t>-0,99; 0,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,74</t>
+          <t>-0,99; 0,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,08</t>
+          <t>-0,91; 1,02</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-45,64%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-55,36%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37,87%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>22,29%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>40,21%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,93; 563,05</t>
+          <t>-88,64; 602,75</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,44</t>
+          <t>-0,87; 1,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,13</t>
+          <t>-1,21; 0,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,29</t>
+          <t>-1,09; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,07</t>
+          <t>0,04; 2,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,54</t>
+          <t>-0,75; 1,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,94</t>
+          <t>-0,81; 1,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,47</t>
+          <t>-0,06; 1,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,55</t>
+          <t>-0,75; 0,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,86</t>
+          <t>-0,69; 0,83</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>102,78%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>14,75%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-22,18%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,98; 306,97</t>
+          <t>-47,55; 143,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 154,74</t>
+          <t>-64,08; 89,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 166,9</t>
+          <t>-59,44; 121,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 122,5</t>
+          <t>-3,22; 333,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 63,82</t>
+          <t>-46,01; 153,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 103,77</t>
+          <t>-52,63; 175,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 156,47</t>
+          <t>-5,73; 165,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 58,21</t>
+          <t>-43,99; 71,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 91,53</t>
+          <t>-42,61; 86,84</t>
         </is>
       </c>
     </row>
